--- a/Midterm-exam/evidence/spreadsheets/per_site/www.hurdal.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.hurdal.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6062.557</v>
+        <v>5234.6990000000005</v>
       </c>
       <c r="C2">
-        <v>4703.463</v>
+        <v>4651.808</v>
       </c>
       <c r="D2">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="E2">
-        <v>10886.906300000002</v>
+        <v>10617.409049999998</v>
       </c>
       <c r="F2">
-        <v>117.5</v>
+        <v>116</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5320.6907320192095</v>
+        <v>5539.1036944909865</v>
       </c>
       <c r="I2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J2">
-        <v>1511832</v>
+        <v>1511754</v>
       </c>
       <c r="K2">
         <v>39</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6003.210000000001</v>
+        <v>6010.4039999999995</v>
       </c>
       <c r="C3">
-        <v>4654.253000000001</v>
+        <v>4666.219999999999</v>
       </c>
       <c r="D3">
-        <v>520</v>
+        <v>574</v>
       </c>
       <c r="E3">
-        <v>10922.741300000002</v>
+        <v>10774.01135</v>
       </c>
       <c r="F3">
-        <v>125.5</v>
+        <v>118</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5356.099876854689</v>
+        <v>5363.021221517572</v>
       </c>
       <c r="I3">
         <v>64</v>
       </c>
       <c r="J3">
-        <v>1511828</v>
+        <v>1510156</v>
       </c>
       <c r="K3">
         <v>39</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5911.739</v>
+        <v>6027.584500000001</v>
       </c>
       <c r="C4">
-        <v>4650.331</v>
+        <v>4748.8505</v>
       </c>
       <c r="D4">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="E4">
-        <v>10850.116549999999</v>
+        <v>10895.68715</v>
       </c>
       <c r="F4">
-        <v>113.5</v>
+        <v>182.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5326.793471890862</v>
+        <v>5885.161829409934</v>
       </c>
       <c r="I4">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J4">
-        <v>1511832</v>
+        <v>1510176</v>
       </c>
       <c r="K4">
         <v>39</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>6003.210000000001</v>
+        <v>6010.4039999999995</v>
       </c>
       <c r="C5">
-        <v>4654.253000000001</v>
+        <v>4666.219999999999</v>
       </c>
       <c r="D5">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="E5">
-        <v>10886.906300000002</v>
+        <v>10774.01135</v>
       </c>
       <c r="F5">
-        <v>117.5</v>
+        <v>118</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5326.793471890862</v>
+        <v>5539.1036944909865</v>
       </c>
       <c r="I5">
         <v>64</v>
       </c>
       <c r="J5">
-        <v>1511832</v>
+        <v>1510176</v>
       </c>
       <c r="K5">
         <v>39</v>
@@ -634,16 +634,16 @@
         <v>text/html</v>
       </c>
       <c r="E2">
-        <v>78302</v>
+        <v>78739</v>
       </c>
       <c r="F2">
-        <v>77933</v>
+        <v>78370</v>
       </c>
       <c r="G2">
-        <v>0.022771239526</v>
+        <v>0.022898324807</v>
       </c>
       <c r="H2">
-        <v>0.0299960397828</v>
+        <v>0.03016344635460001</v>
       </c>
     </row>
     <row r="3">
@@ -865,16 +865,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E11">
-        <v>116458</v>
+        <v>116459</v>
       </c>
       <c r="F11">
         <v>115825</v>
       </c>
       <c r="G11">
-        <v>0.03386750035399999</v>
+        <v>0.03386779116699999</v>
       </c>
       <c r="H11">
-        <v>0.04461289368120001</v>
+        <v>0.044613276762600004</v>
       </c>
     </row>
     <row r="12">
@@ -1047,16 +1047,16 @@
         <v>application/json</v>
       </c>
       <c r="E18">
-        <v>118531</v>
+        <v>114839</v>
       </c>
       <c r="F18">
-        <v>2261798</v>
+        <v>2189216</v>
       </c>
       <c r="G18">
-        <v>0.03447035570299999</v>
+        <v>0.03339667410699999</v>
       </c>
       <c r="H18">
-        <v>0.0454070214234</v>
+        <v>0.04399268489460001</v>
       </c>
     </row>
     <row r="19">
@@ -1073,16 +1073,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E19">
-        <v>13619</v>
+        <v>13612</v>
       </c>
       <c r="F19">
         <v>45188</v>
       </c>
       <c r="G19">
-        <v>0.003960582247</v>
+        <v>0.003958546555999999</v>
       </c>
       <c r="H19">
-        <v>0.0052171855866</v>
+        <v>0.0052145040168</v>
       </c>
     </row>
     <row r="20">
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Farrangementer%2Fhkh%2Fbergen-1.jpeg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Fhurdal-frivilligsentral%2Fkampanjebilde-2025.jpg</v>
       </c>
       <c r="C23" t="str">
         <v>Image</v>
@@ -1177,16 +1177,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E23">
-        <v>31058</v>
+        <v>34100</v>
       </c>
       <c r="F23">
-        <v>30460</v>
+        <v>33494</v>
       </c>
       <c r="G23">
-        <v>0.009032070154</v>
+        <v>0.009916723299999998</v>
       </c>
       <c r="H23">
-        <v>0.0118977421212</v>
+        <v>0.013063075740000001</v>
       </c>
     </row>
     <row r="24">
@@ -1194,25 +1194,25 @@
         <v>1</v>
       </c>
       <c r="B24" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Fhelse%2Fnhus-hovedillustrasjon.png</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Fdiv%2Fsignaering-avtale-nav.jpg</v>
       </c>
       <c r="C24" t="str">
         <v>Image</v>
       </c>
       <c r="D24" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E24">
-        <v>12303</v>
+        <v>28840</v>
       </c>
       <c r="F24">
-        <v>11717</v>
+        <v>28242</v>
       </c>
       <c r="G24">
-        <v>0.0035778723389999992</v>
+        <v>0.008387046919999998</v>
       </c>
       <c r="H24">
-        <v>0.004713050464200001</v>
+        <v>0.011048067576000001</v>
       </c>
     </row>
     <row r="25">
@@ -1220,7 +1220,7 @@
         <v>1</v>
       </c>
       <c r="B25" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Farrangementer%2F0925_dsb_1306-2.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Fhelse%2Fapotek---bilde.jpg</v>
       </c>
       <c r="C25" t="str">
         <v>Image</v>
@@ -1229,16 +1229,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E25">
-        <v>36829</v>
+        <v>35610</v>
       </c>
       <c r="F25">
-        <v>36223</v>
+        <v>35004</v>
       </c>
       <c r="G25">
-        <v>0.010710351977</v>
+        <v>0.010355850929999999</v>
       </c>
       <c r="H25">
-        <v>0.014108504880600004</v>
+        <v>0.013641528654</v>
       </c>
     </row>
     <row r="26">
@@ -1255,16 +1255,16 @@
         <v>text/css</v>
       </c>
       <c r="E26">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F26">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G26">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H26">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="27">
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.hurdal.kommune.no%2F&amp;title=Forsiden%20-%20hurdal%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1122&amp;luid=5846dff8-dd7d-0bdf-15d8-8f6fc718de57&amp;dnt=true&amp;prev=ff2ed84a-fa23-8018-301c-d47cb5dcecca&amp;rnd=77490</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.hurdal.kommune.no%2F&amp;title=Forsiden%20-%20hurdal%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1147&amp;luid=9967d549-321e-df15-2848-2b9628039d40&amp;dnt=true&amp;prev=4ef216d5-b7ba-c12f-e8e2-8b35fd23fb0f&amp;rnd=70901</v>
       </c>
       <c r="C28" t="str">
         <v>Image</v>
@@ -1434,16 +1434,16 @@
         <v>text/json</v>
       </c>
       <c r="E33">
-        <v>7413</v>
+        <v>7415</v>
       </c>
       <c r="F33">
         <v>28951</v>
       </c>
       <c r="G33">
-        <v>0.0021557967689999997</v>
+        <v>0.0021563783949999998</v>
       </c>
       <c r="H33">
-        <v>0.0028397824181999997</v>
+        <v>0.0028405485810000003</v>
       </c>
     </row>
     <row r="34">
@@ -1460,16 +1460,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E34">
-        <v>25693</v>
+        <v>10396</v>
       </c>
       <c r="F34">
         <v>25314</v>
       </c>
       <c r="G34">
-        <v>0.007471858408999999</v>
+        <v>0.0030232919479999997</v>
       </c>
       <c r="H34">
-        <v>0.0098425104102</v>
+        <v>0.003982514234400001</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E38">
-        <v>40919</v>
+        <v>40920</v>
       </c>
       <c r="F38">
         <v>40334</v>
       </c>
       <c r="G38">
-        <v>0.011899777147</v>
+        <v>0.011900067959999998</v>
       </c>
       <c r="H38">
-        <v>0.0156753078066</v>
+        <v>0.015675690888</v>
       </c>
     </row>
     <row r="39">
@@ -1639,16 +1639,16 @@
         <v>text/html</v>
       </c>
       <c r="E41">
-        <v>78302</v>
+        <v>78739</v>
       </c>
       <c r="F41">
-        <v>77933</v>
+        <v>78370</v>
       </c>
       <c r="G41">
-        <v>0.022771239526</v>
+        <v>0.022898324807</v>
       </c>
       <c r="H41">
-        <v>0.0299960397828</v>
+        <v>0.03016344635460001</v>
       </c>
     </row>
     <row r="42">
@@ -1870,16 +1870,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E50">
-        <v>116458</v>
+        <v>116508</v>
       </c>
       <c r="F50">
         <v>115825</v>
       </c>
       <c r="G50">
-        <v>0.03386750035399999</v>
+        <v>0.033882041003999996</v>
       </c>
       <c r="H50">
-        <v>0.04461289368120001</v>
+        <v>0.044632047751200006</v>
       </c>
     </row>
     <row r="51">
@@ -2052,16 +2052,16 @@
         <v>application/json</v>
       </c>
       <c r="E57">
-        <v>118531</v>
+        <v>114839</v>
       </c>
       <c r="F57">
-        <v>2261798</v>
+        <v>2189216</v>
       </c>
       <c r="G57">
-        <v>0.03447035570299999</v>
+        <v>0.03339667410699999</v>
       </c>
       <c r="H57">
-        <v>0.0454070214234</v>
+        <v>0.04399268489460001</v>
       </c>
     </row>
     <row r="58">
@@ -2078,16 +2078,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E58">
-        <v>13614</v>
+        <v>13619</v>
       </c>
       <c r="F58">
         <v>45188</v>
       </c>
       <c r="G58">
-        <v>0.003959128181999999</v>
+        <v>0.003960582247</v>
       </c>
       <c r="H58">
-        <v>0.005215270179600001</v>
+        <v>0.0052171855866</v>
       </c>
     </row>
     <row r="59">
@@ -2130,16 +2130,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E60">
-        <v>24223</v>
+        <v>23995</v>
       </c>
       <c r="F60">
         <v>23643</v>
       </c>
       <c r="G60">
-        <v>0.007044363298999999</v>
+        <v>0.0069780579349999995</v>
       </c>
       <c r="H60">
-        <v>0.0092793807522</v>
+        <v>0.009192038193</v>
       </c>
     </row>
     <row r="61">
@@ -2156,16 +2156,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E61">
-        <v>8886</v>
+        <v>8649</v>
       </c>
       <c r="F61">
         <v>8319</v>
       </c>
       <c r="G61">
-        <v>0.002584164318</v>
+        <v>0.0025152416369999997</v>
       </c>
       <c r="H61">
-        <v>0.0034040613204000007</v>
+        <v>0.0033132710286</v>
       </c>
     </row>
     <row r="62">
@@ -2173,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="B62" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Farrangementer%2Fhkh%2Fbergen-1.jpeg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Fhurdal-frivilligsentral%2Fkampanjebilde-2025.jpg</v>
       </c>
       <c r="C62" t="str">
         <v>Image</v>
@@ -2182,16 +2182,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E62">
-        <v>31059</v>
+        <v>33855</v>
       </c>
       <c r="F62">
-        <v>30460</v>
+        <v>33494</v>
       </c>
       <c r="G62">
-        <v>0.009032360966999999</v>
+        <v>0.009845474114999999</v>
       </c>
       <c r="H62">
-        <v>0.011898125202600002</v>
+        <v>0.012969220797</v>
       </c>
     </row>
     <row r="63">
@@ -2199,25 +2199,25 @@
         <v>2</v>
       </c>
       <c r="B63" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Fhelse%2Fnhus-hovedillustrasjon.png</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Fdiv%2Fsignaering-avtale-nav.jpg</v>
       </c>
       <c r="C63" t="str">
         <v>Image</v>
       </c>
       <c r="D63" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E63">
-        <v>12303</v>
+        <v>28595</v>
       </c>
       <c r="F63">
-        <v>11717</v>
+        <v>28242</v>
       </c>
       <c r="G63">
-        <v>0.0035778723389999992</v>
+        <v>0.008315797735</v>
       </c>
       <c r="H63">
-        <v>0.004713050464200001</v>
+        <v>0.010954212633000001</v>
       </c>
     </row>
     <row r="64">
@@ -2225,7 +2225,7 @@
         <v>2</v>
       </c>
       <c r="B64" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Farrangementer%2F0925_dsb_1306-2.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Fhelse%2Fapotek---bilde.jpg</v>
       </c>
       <c r="C64" t="str">
         <v>Image</v>
@@ -2234,16 +2234,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E64">
-        <v>36829</v>
+        <v>35365</v>
       </c>
       <c r="F64">
-        <v>36223</v>
+        <v>35004</v>
       </c>
       <c r="G64">
-        <v>0.010710351977</v>
+        <v>0.010284601745</v>
       </c>
       <c r="H64">
-        <v>0.014108504880600004</v>
+        <v>0.013547673711</v>
       </c>
     </row>
     <row r="65">
@@ -2260,16 +2260,16 @@
         <v>text/css</v>
       </c>
       <c r="E65">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F65">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G65">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H65">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="66">
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.hurdal.kommune.no%2F&amp;title=Forsiden%20-%20hurdal%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1112&amp;luid=3e170fed-35e3-5e67-eca5-0443c53eadc2&amp;dnt=true&amp;prev=32ae4f40-b56f-d3d0-9893-5344f685b04b&amp;rnd=62922</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.hurdal.kommune.no%2F&amp;title=Forsiden%20-%20hurdal%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1173&amp;luid=287d6ebb-c1df-2a66-71a3-40a1817115fb&amp;dnt=true&amp;prev=8258ed7b-4687-00a3-b98b-6efaef0c443b&amp;rnd=94156</v>
       </c>
       <c r="C67" t="str">
         <v>Image</v>
@@ -2465,16 +2465,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E73">
-        <v>25693</v>
+        <v>10396</v>
       </c>
       <c r="F73">
         <v>25314</v>
       </c>
       <c r="G73">
-        <v>0.007471858408999999</v>
+        <v>0.0030232919479999997</v>
       </c>
       <c r="H73">
-        <v>0.0098425104102</v>
+        <v>0.003982514234400001</v>
       </c>
     </row>
     <row r="74">
@@ -2566,16 +2566,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E77">
-        <v>40919</v>
+        <v>40701</v>
       </c>
       <c r="F77">
         <v>40334</v>
       </c>
       <c r="G77">
-        <v>0.011899777147</v>
+        <v>0.011836379912999998</v>
       </c>
       <c r="H77">
-        <v>0.0156753078066</v>
+        <v>0.015591796061400003</v>
       </c>
     </row>
     <row r="78">
@@ -2592,16 +2592,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E78">
-        <v>45796</v>
+        <v>45586</v>
       </c>
       <c r="F78">
         <v>45212</v>
       </c>
       <c r="G78">
-        <v>0.013318072147999998</v>
+        <v>0.013257001417999998</v>
       </c>
       <c r="H78">
-        <v>0.0175435957944</v>
+        <v>0.0174631487004</v>
       </c>
     </row>
     <row r="79">
@@ -2618,16 +2618,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E79">
-        <v>26807</v>
+        <v>26784</v>
       </c>
       <c r="F79">
         <v>26232</v>
       </c>
       <c r="G79">
-        <v>0.007795824090999999</v>
+        <v>0.007789135391999999</v>
       </c>
       <c r="H79">
-        <v>0.0102692630898</v>
+        <v>0.0102604522176</v>
       </c>
     </row>
     <row r="80">
@@ -2644,16 +2644,16 @@
         <v>text/html</v>
       </c>
       <c r="E80">
-        <v>78302</v>
+        <v>78739</v>
       </c>
       <c r="F80">
-        <v>77933</v>
+        <v>78370</v>
       </c>
       <c r="G80">
-        <v>0.022771239526</v>
+        <v>0.022898324807</v>
       </c>
       <c r="H80">
-        <v>0.0299960397828</v>
+        <v>0.03016344635460001</v>
       </c>
     </row>
     <row r="81">
@@ -2875,16 +2875,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E89">
-        <v>116458</v>
+        <v>116508</v>
       </c>
       <c r="F89">
         <v>115825</v>
       </c>
       <c r="G89">
-        <v>0.03386750035399999</v>
+        <v>0.033882041003999996</v>
       </c>
       <c r="H89">
-        <v>0.04461289368120001</v>
+        <v>0.044632047751200006</v>
       </c>
     </row>
     <row r="90">
@@ -3057,16 +3057,16 @@
         <v>application/json</v>
       </c>
       <c r="E96">
-        <v>118531</v>
+        <v>114839</v>
       </c>
       <c r="F96">
-        <v>2261798</v>
+        <v>2189216</v>
       </c>
       <c r="G96">
-        <v>0.03447035570299999</v>
+        <v>0.03339667410699999</v>
       </c>
       <c r="H96">
-        <v>0.0454070214234</v>
+        <v>0.04399268489460001</v>
       </c>
     </row>
     <row r="97">
@@ -3083,16 +3083,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E97">
-        <v>13618</v>
+        <v>13620</v>
       </c>
       <c r="F97">
         <v>45188</v>
       </c>
       <c r="G97">
-        <v>0.0039602914339999995</v>
+        <v>0.00396087306</v>
       </c>
       <c r="H97">
-        <v>0.0052168025052</v>
+        <v>0.0052175686680000005</v>
       </c>
     </row>
     <row r="98">
@@ -3135,16 +3135,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E99">
-        <v>24223</v>
+        <v>23987</v>
       </c>
       <c r="F99">
         <v>23643</v>
       </c>
       <c r="G99">
-        <v>0.007044363298999999</v>
+        <v>0.006975731430999999</v>
       </c>
       <c r="H99">
-        <v>0.0092793807522</v>
+        <v>0.0091889735418</v>
       </c>
     </row>
     <row r="100">
@@ -3161,16 +3161,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E100">
-        <v>8886</v>
+        <v>8650</v>
       </c>
       <c r="F100">
         <v>8319</v>
       </c>
       <c r="G100">
-        <v>0.002584164318</v>
+        <v>0.0025155324499999995</v>
       </c>
       <c r="H100">
-        <v>0.0034040613204000007</v>
+        <v>0.0033136541100000005</v>
       </c>
     </row>
     <row r="101">
@@ -3178,7 +3178,7 @@
         <v>3</v>
       </c>
       <c r="B101" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Farrangementer%2Fhkh%2Fbergen-1.jpeg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Fhurdal-frivilligsentral%2Fkampanjebilde-2025.jpg</v>
       </c>
       <c r="C101" t="str">
         <v>Image</v>
@@ -3187,16 +3187,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E101">
-        <v>31059</v>
+        <v>33855</v>
       </c>
       <c r="F101">
-        <v>30460</v>
+        <v>33494</v>
       </c>
       <c r="G101">
-        <v>0.009032360966999999</v>
+        <v>0.009845474114999999</v>
       </c>
       <c r="H101">
-        <v>0.011898125202600002</v>
+        <v>0.012969220797</v>
       </c>
     </row>
     <row r="102">
@@ -3204,25 +3204,25 @@
         <v>3</v>
       </c>
       <c r="B102" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Fhelse%2Fnhus-hovedillustrasjon.png</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Fdiv%2Fsignaering-avtale-nav.jpg</v>
       </c>
       <c r="C102" t="str">
         <v>Image</v>
       </c>
       <c r="D102" t="str">
-        <v>image/png</v>
+        <v>image/jpeg</v>
       </c>
       <c r="E102">
-        <v>12303</v>
+        <v>28596</v>
       </c>
       <c r="F102">
-        <v>11717</v>
+        <v>28242</v>
       </c>
       <c r="G102">
-        <v>0.0035778723389999992</v>
+        <v>0.008316088547999999</v>
       </c>
       <c r="H102">
-        <v>0.004713050464200001</v>
+        <v>0.010954595714400002</v>
       </c>
     </row>
     <row r="103">
@@ -3230,7 +3230,7 @@
         <v>3</v>
       </c>
       <c r="B103" t="str">
-        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Farrangementer%2F0925_dsb_1306-2.jpg</v>
+        <v>https://res.cloudinary.com/ssp/image/fetch/w_346,q_100,c_fill/https%3A%2F%2Fres.cloudinary.com%2Fssp%2Fimage%2Ffetch%2Fw_346%2Ch_190%2Cc_fill%2Cf_auto%2Fhttps%3A%2F%2Fwww.hurdal.kommune.no%2F%2Fsiteassets%2Fnye-hurdal%2Fbilder%2Fhelse%2Fapotek---bilde.jpg</v>
       </c>
       <c r="C103" t="str">
         <v>Image</v>
@@ -3239,16 +3239,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E103">
-        <v>36829</v>
+        <v>35389</v>
       </c>
       <c r="F103">
-        <v>36223</v>
+        <v>35004</v>
       </c>
       <c r="G103">
-        <v>0.010710351977</v>
+        <v>0.010291581256999999</v>
       </c>
       <c r="H103">
-        <v>0.014108504880600004</v>
+        <v>0.013556867664600002</v>
       </c>
     </row>
     <row r="104">
@@ -3265,16 +3265,16 @@
         <v>text/css</v>
       </c>
       <c r="E104">
-        <v>22057</v>
+        <v>22174</v>
       </c>
       <c r="F104">
-        <v>255939</v>
+        <v>257200</v>
       </c>
       <c r="G104">
-        <v>0.006414462340999999</v>
+        <v>0.006448487461999999</v>
       </c>
       <c r="H104">
-        <v>0.0084496264398</v>
+        <v>0.008494446963600001</v>
       </c>
     </row>
     <row r="105">
@@ -3308,7 +3308,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.hurdal.kommune.no%2F&amp;title=Forsiden%20-%20hurdal%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1110&amp;luid=832a7d15-82c9-e25d-a791-eac9c00f5a2e&amp;dnt=true&amp;prev=c5cce0a1-a584-885f-0195-e10a121d5096&amp;rnd=54354</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.hurdal.kommune.no%2F&amp;title=Forsiden%20-%20hurdal%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1172&amp;luid=8283ddb7-6936-3e7d-7736-2b6b825acfb1&amp;dnt=true&amp;prev=d26591e4-26a5-623a-7be7-8a9ecb747b42&amp;rnd=75976</v>
       </c>
       <c r="C106" t="str">
         <v>Image</v>
@@ -3444,16 +3444,16 @@
         <v>text/json</v>
       </c>
       <c r="E111">
-        <v>7413</v>
+        <v>7414</v>
       </c>
       <c r="F111">
         <v>28951</v>
       </c>
       <c r="G111">
-        <v>0.0021557967689999997</v>
+        <v>0.0021560875819999995</v>
       </c>
       <c r="H111">
-        <v>0.0028397824181999997</v>
+        <v>0.0028401654996000002</v>
       </c>
     </row>
     <row r="112">
@@ -3470,16 +3470,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E112">
-        <v>25693</v>
+        <v>10396</v>
       </c>
       <c r="F112">
         <v>25314</v>
       </c>
       <c r="G112">
-        <v>0.007471858408999999</v>
+        <v>0.0030232919479999997</v>
       </c>
       <c r="H112">
-        <v>0.0098425104102</v>
+        <v>0.003982514234400001</v>
       </c>
     </row>
     <row r="113">
@@ -3571,16 +3571,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E116">
-        <v>40919</v>
+        <v>40701</v>
       </c>
       <c r="F116">
         <v>40334</v>
       </c>
       <c r="G116">
-        <v>0.011899777147</v>
+        <v>0.011836379912999998</v>
       </c>
       <c r="H116">
-        <v>0.0156753078066</v>
+        <v>0.015591796061400003</v>
       </c>
     </row>
     <row r="117">
@@ -3597,16 +3597,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E117">
-        <v>45796</v>
+        <v>45791</v>
       </c>
       <c r="F117">
         <v>45212</v>
       </c>
       <c r="G117">
-        <v>0.013318072147999998</v>
+        <v>0.013316618082999998</v>
       </c>
       <c r="H117">
-        <v>0.0175435957944</v>
+        <v>0.0175416803874</v>
       </c>
     </row>
     <row r="118">
@@ -3623,16 +3623,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E118">
-        <v>26807</v>
+        <v>26579</v>
       </c>
       <c r="F118">
         <v>26232</v>
       </c>
       <c r="G118">
-        <v>0.007795824090999999</v>
+        <v>0.007729518726999999</v>
       </c>
       <c r="H118">
-        <v>0.0102692630898</v>
+        <v>0.0101819205306</v>
       </c>
     </row>
   </sheetData>
@@ -3671,10 +3671,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>234906</v>
+        <v>236217</v>
       </c>
       <c r="D2">
-        <v>233799</v>
+        <v>235110</v>
       </c>
     </row>
     <row r="3">
@@ -3727,10 +3727,10 @@
         <v>48</v>
       </c>
       <c r="C6">
-        <v>1194713</v>
+        <v>1200718</v>
       </c>
       <c r="D6">
-        <v>1173282</v>
+        <v>1228302</v>
       </c>
     </row>
     <row r="7">
@@ -3741,10 +3741,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>421764</v>
+        <v>411039</v>
       </c>
       <c r="D7">
-        <v>7553211</v>
+        <v>7339248</v>
       </c>
     </row>
     <row r="8">
@@ -3769,7 +3769,7 @@
         <v>3</v>
       </c>
       <c r="C9">
-        <v>22239</v>
+        <v>22242</v>
       </c>
       <c r="D9">
         <v>86853</v>
@@ -3836,13 +3836,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1511832</v>
+        <v>1511754</v>
       </c>
       <c r="C2">
-        <v>0.43966039941599994</v>
+        <v>0.4396377160019999</v>
       </c>
       <c r="D2">
-        <v>0.5791547191248001</v>
+        <v>0.5791248387756001</v>
       </c>
     </row>
     <row r="3">
@@ -3850,13 +3850,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1511828</v>
+        <v>1510156</v>
       </c>
       <c r="C3">
-        <v>0.43965923616399993</v>
+        <v>0.439172996828</v>
       </c>
       <c r="D3">
-        <v>0.5791531867992</v>
+        <v>0.5785126746984001</v>
       </c>
     </row>
     <row r="4">
@@ -3864,13 +3864,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1511832</v>
+        <v>1510176</v>
       </c>
       <c r="C4">
-        <v>0.43966039941599994</v>
+        <v>0.43917881308799994</v>
       </c>
       <c r="D4">
-        <v>0.5791547191248001</v>
+        <v>0.5785203363264001</v>
       </c>
     </row>
     <row r="5">
@@ -3878,13 +3878,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1511832</v>
+        <v>1510176</v>
       </c>
       <c r="C5">
-        <v>0.43966039941599994</v>
+        <v>0.43917881308799994</v>
       </c>
       <c r="D5">
-        <v>0.5791547191248001</v>
+        <v>0.5785203363264001</v>
       </c>
     </row>
   </sheetData>

--- a/Midterm-exam/evidence/spreadsheets/per_site/www.hurdal.kommune.no.xlsx
+++ b/Midterm-exam/evidence/spreadsheets/per_site/www.hurdal.kommune.no.xlsx
@@ -445,31 +445,31 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5234.6990000000005</v>
+        <v>6134.911499999999</v>
       </c>
       <c r="C2">
-        <v>4651.808</v>
+        <v>4673.5035</v>
       </c>
       <c r="D2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E2">
-        <v>10617.409049999998</v>
+        <v>10850.188400000003</v>
       </c>
       <c r="F2">
-        <v>116</v>
+        <v>121.5</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>5539.1036944909865</v>
+        <v>5618.689090491617</v>
       </c>
       <c r="I2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J2">
-        <v>1511754</v>
+        <v>1548785</v>
       </c>
       <c r="K2">
         <v>39</v>
@@ -480,31 +480,31 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6010.4039999999995</v>
+        <v>6026.2339999999995</v>
       </c>
       <c r="C3">
-        <v>4666.219999999999</v>
+        <v>4717.811999999999</v>
       </c>
       <c r="D3">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E3">
-        <v>10774.01135</v>
+        <v>11116.71915</v>
       </c>
       <c r="F3">
-        <v>118</v>
+        <v>130.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5363.021221517572</v>
+        <v>5767.274102029613</v>
       </c>
       <c r="I3">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>1510156</v>
+        <v>1531817</v>
       </c>
       <c r="K3">
         <v>39</v>
@@ -515,31 +515,31 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6027.584500000001</v>
+        <v>6060.887499999999</v>
       </c>
       <c r="C4">
-        <v>4748.8505</v>
+        <v>4707.5515</v>
       </c>
       <c r="D4">
-        <v>501</v>
+        <v>605</v>
       </c>
       <c r="E4">
-        <v>10895.68715</v>
+        <v>10963.08915</v>
       </c>
       <c r="F4">
-        <v>182.5</v>
+        <v>138.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5885.161829409934</v>
+        <v>5515.170074695596</v>
       </c>
       <c r="I4">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J4">
-        <v>1510176</v>
+        <v>1531880</v>
       </c>
       <c r="K4">
         <v>39</v>
@@ -550,31 +550,31 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>6010.4039999999995</v>
+        <v>6060.887499999999</v>
       </c>
       <c r="C5">
-        <v>4666.219999999999</v>
+        <v>4707.5515</v>
       </c>
       <c r="D5">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="E5">
-        <v>10774.01135</v>
+        <v>10963.08915</v>
       </c>
       <c r="F5">
-        <v>118</v>
+        <v>130.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5539.1036944909865</v>
+        <v>5618.689090491617</v>
       </c>
       <c r="I5">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5">
-        <v>1510176</v>
+        <v>1531880</v>
       </c>
       <c r="K5">
         <v>39</v>
@@ -686,16 +686,16 @@
         <v>text/css</v>
       </c>
       <c r="E4">
-        <v>4534</v>
+        <v>26253</v>
       </c>
       <c r="F4">
         <v>25942</v>
       </c>
       <c r="G4">
-        <v>0.001318546142</v>
+        <v>0.007634713688999999</v>
       </c>
       <c r="H4">
-        <v>0.0017368910676000002</v>
+        <v>0.0100570359942</v>
       </c>
     </row>
     <row r="5">
@@ -1073,16 +1073,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E19">
-        <v>13612</v>
+        <v>13624</v>
       </c>
       <c r="F19">
         <v>45188</v>
       </c>
       <c r="G19">
-        <v>0.003958546555999999</v>
+        <v>0.003962036312</v>
       </c>
       <c r="H19">
-        <v>0.0052145040168</v>
+        <v>0.0052191009936</v>
       </c>
     </row>
     <row r="20">
@@ -1298,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.hurdal.kommune.no%2F&amp;title=Forsiden%20-%20hurdal%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1147&amp;luid=9967d549-321e-df15-2848-2b9628039d40&amp;dnt=true&amp;prev=4ef216d5-b7ba-c12f-e8e2-8b35fd23fb0f&amp;rnd=70901</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.hurdal.kommune.no%2F&amp;title=Forsiden%20-%20hurdal%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1161&amp;luid=9a836d8d-a4fd-1185-632d-b3298773b806&amp;dnt=true&amp;prev=059d80fb-d1bc-cc58-9536-efcf207075ff&amp;rnd=83190</v>
       </c>
       <c r="C28" t="str">
         <v>Image</v>
@@ -1434,16 +1434,16 @@
         <v>text/json</v>
       </c>
       <c r="E33">
-        <v>7415</v>
+        <v>7414</v>
       </c>
       <c r="F33">
         <v>28951</v>
       </c>
       <c r="G33">
-        <v>0.0021563783949999998</v>
+        <v>0.0021560875819999995</v>
       </c>
       <c r="H33">
-        <v>0.0028405485810000003</v>
+        <v>0.0028401654996000002</v>
       </c>
     </row>
     <row r="34">
@@ -1460,16 +1460,16 @@
         <v>image/svg+xml</v>
       </c>
       <c r="E34">
-        <v>10396</v>
+        <v>25693</v>
       </c>
       <c r="F34">
         <v>25314</v>
       </c>
       <c r="G34">
-        <v>0.0030232919479999997</v>
+        <v>0.007471858408999999</v>
       </c>
       <c r="H34">
-        <v>0.003982514234400001</v>
+        <v>0.0098425104102</v>
       </c>
     </row>
     <row r="35">
@@ -1561,16 +1561,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E38">
-        <v>40920</v>
+        <v>40921</v>
       </c>
       <c r="F38">
         <v>40334</v>
       </c>
       <c r="G38">
-        <v>0.011900067959999998</v>
+        <v>0.011900358772999999</v>
       </c>
       <c r="H38">
-        <v>0.015675690888</v>
+        <v>0.0156760739694</v>
       </c>
     </row>
     <row r="39">
@@ -1587,16 +1587,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E39">
-        <v>45796</v>
+        <v>45798</v>
       </c>
       <c r="F39">
         <v>45212</v>
       </c>
       <c r="G39">
-        <v>0.013318072147999998</v>
+        <v>0.013318653773999998</v>
       </c>
       <c r="H39">
-        <v>0.0175435957944</v>
+        <v>0.0175443619572</v>
       </c>
     </row>
     <row r="40">
@@ -1613,16 +1613,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E40">
-        <v>26807</v>
+        <v>26808</v>
       </c>
       <c r="F40">
         <v>26232</v>
       </c>
       <c r="G40">
-        <v>0.007795824090999999</v>
+        <v>0.007796114904</v>
       </c>
       <c r="H40">
-        <v>0.0102692630898</v>
+        <v>0.0102696461712</v>
       </c>
     </row>
     <row r="41">
@@ -1691,16 +1691,16 @@
         <v>text/css</v>
       </c>
       <c r="E43">
-        <v>4534</v>
+        <v>26253</v>
       </c>
       <c r="F43">
         <v>25942</v>
       </c>
       <c r="G43">
-        <v>0.001318546142</v>
+        <v>0.007634713688999999</v>
       </c>
       <c r="H43">
-        <v>0.0017368910676000002</v>
+        <v>0.0100570359942</v>
       </c>
     </row>
     <row r="44">
@@ -2130,16 +2130,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E60">
-        <v>23995</v>
+        <v>23987</v>
       </c>
       <c r="F60">
         <v>23643</v>
       </c>
       <c r="G60">
-        <v>0.0069780579349999995</v>
+        <v>0.006975731430999999</v>
       </c>
       <c r="H60">
-        <v>0.009192038193</v>
+        <v>0.0091889735418</v>
       </c>
     </row>
     <row r="61">
@@ -2156,16 +2156,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E61">
-        <v>8649</v>
+        <v>8650</v>
       </c>
       <c r="F61">
         <v>8319</v>
       </c>
       <c r="G61">
-        <v>0.0025152416369999997</v>
+        <v>0.0025155324499999995</v>
       </c>
       <c r="H61">
-        <v>0.0033132710286</v>
+        <v>0.0033136541100000005</v>
       </c>
     </row>
     <row r="62">
@@ -2208,16 +2208,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E63">
-        <v>28595</v>
+        <v>28596</v>
       </c>
       <c r="F63">
         <v>28242</v>
       </c>
       <c r="G63">
-        <v>0.008315797735</v>
+        <v>0.008316088547999999</v>
       </c>
       <c r="H63">
-        <v>0.010954212633000001</v>
+        <v>0.010954595714400002</v>
       </c>
     </row>
     <row r="64">
@@ -2234,16 +2234,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E64">
-        <v>35365</v>
+        <v>35366</v>
       </c>
       <c r="F64">
         <v>35004</v>
       </c>
       <c r="G64">
-        <v>0.010284601745</v>
+        <v>0.010284892557999999</v>
       </c>
       <c r="H64">
-        <v>0.013547673711</v>
+        <v>0.013548056792399999</v>
       </c>
     </row>
     <row r="65">
@@ -2286,16 +2286,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E66">
-        <v>325285</v>
+        <v>325249</v>
       </c>
       <c r="F66">
         <v>1249958</v>
       </c>
       <c r="G66">
-        <v>0.09459710670499999</v>
+        <v>0.09458663743699999</v>
       </c>
       <c r="H66">
-        <v>0.124610633199</v>
+        <v>0.12459684226860002</v>
       </c>
     </row>
     <row r="67">
@@ -2303,7 +2303,7 @@
         <v>2</v>
       </c>
       <c r="B67" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.hurdal.kommune.no%2F&amp;title=Forsiden%20-%20hurdal%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1173&amp;luid=287d6ebb-c1df-2a66-71a3-40a1817115fb&amp;dnt=true&amp;prev=8258ed7b-4687-00a3-b98b-6efaef0c443b&amp;rnd=94156</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.hurdal.kommune.no%2F&amp;title=Forsiden%20-%20hurdal%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1182&amp;luid=21e6b176-ac8a-f29e-7f3d-7a149248e81e&amp;dnt=true&amp;prev=c0b14f9c-22b7-95f2-fa7a-d13ea9b345f6&amp;rnd=21412</v>
       </c>
       <c r="C67" t="str">
         <v>Image</v>
@@ -2439,16 +2439,16 @@
         <v>text/json</v>
       </c>
       <c r="E72">
-        <v>7413</v>
+        <v>7414</v>
       </c>
       <c r="F72">
         <v>28951</v>
       </c>
       <c r="G72">
-        <v>0.0021557967689999997</v>
+        <v>0.0021560875819999995</v>
       </c>
       <c r="H72">
-        <v>0.0028397824181999997</v>
+        <v>0.0028401654996000002</v>
       </c>
     </row>
     <row r="73">
@@ -2566,16 +2566,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E77">
-        <v>40701</v>
+        <v>40692</v>
       </c>
       <c r="F77">
         <v>40334</v>
       </c>
       <c r="G77">
-        <v>0.011836379912999998</v>
+        <v>0.011833762595999999</v>
       </c>
       <c r="H77">
-        <v>0.015591796061400003</v>
+        <v>0.015588348328800003</v>
       </c>
     </row>
     <row r="78">
@@ -2592,16 +2592,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E78">
-        <v>45586</v>
+        <v>45782</v>
       </c>
       <c r="F78">
         <v>45212</v>
       </c>
       <c r="G78">
-        <v>0.013257001417999998</v>
+        <v>0.013314000765999997</v>
       </c>
       <c r="H78">
-        <v>0.0174631487004</v>
+        <v>0.017538232654800003</v>
       </c>
     </row>
     <row r="79">
@@ -2618,16 +2618,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E79">
-        <v>26784</v>
+        <v>26579</v>
       </c>
       <c r="F79">
         <v>26232</v>
       </c>
       <c r="G79">
-        <v>0.007789135391999999</v>
+        <v>0.007729518726999999</v>
       </c>
       <c r="H79">
-        <v>0.0102604522176</v>
+        <v>0.0101819205306</v>
       </c>
     </row>
     <row r="80">
@@ -2696,16 +2696,16 @@
         <v>text/css</v>
       </c>
       <c r="E82">
-        <v>4534</v>
+        <v>26253</v>
       </c>
       <c r="F82">
         <v>25942</v>
       </c>
       <c r="G82">
-        <v>0.001318546142</v>
+        <v>0.007634713688999999</v>
       </c>
       <c r="H82">
-        <v>0.0017368910676000002</v>
+        <v>0.0100570359942</v>
       </c>
     </row>
     <row r="83">
@@ -3083,16 +3083,16 @@
         <v>application/javascript</v>
       </c>
       <c r="E97">
-        <v>13620</v>
+        <v>13619</v>
       </c>
       <c r="F97">
         <v>45188</v>
       </c>
       <c r="G97">
-        <v>0.00396087306</v>
+        <v>0.003960582247</v>
       </c>
       <c r="H97">
-        <v>0.0052175686680000005</v>
+        <v>0.0052171855866</v>
       </c>
     </row>
     <row r="98">
@@ -3135,16 +3135,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E99">
-        <v>23987</v>
+        <v>23996</v>
       </c>
       <c r="F99">
         <v>23643</v>
       </c>
       <c r="G99">
-        <v>0.006975731430999999</v>
+        <v>0.006978348747999999</v>
       </c>
       <c r="H99">
-        <v>0.0091889735418</v>
+        <v>0.009192421274400002</v>
       </c>
     </row>
     <row r="100">
@@ -3239,16 +3239,16 @@
         <v>image/jpeg</v>
       </c>
       <c r="E103">
-        <v>35389</v>
+        <v>35366</v>
       </c>
       <c r="F103">
         <v>35004</v>
       </c>
       <c r="G103">
-        <v>0.010291581256999999</v>
+        <v>0.010284892557999999</v>
       </c>
       <c r="H103">
-        <v>0.013556867664600002</v>
+        <v>0.013548056792399999</v>
       </c>
     </row>
     <row r="104">
@@ -3308,7 +3308,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="str">
-        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.hurdal.kommune.no%2F&amp;title=Forsiden%20-%20hurdal%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1172&amp;luid=8283ddb7-6936-3e7d-7736-2b6b825acfb1&amp;dnt=true&amp;prev=d26591e4-26a5-623a-7be7-8a9ecb747b42&amp;rnd=75976</v>
+        <v>https://6019370.global.siteimproveanalytics.io/image.aspx?url=https%3A%2F%2Fwww.hurdal.kommune.no%2F&amp;title=Forsiden%20-%20hurdal%20kommune&amp;res=412x823&amp;accountid=6019370&amp;rt=1220&amp;luid=45dbec2a-4b41-fec9-7ead-5b70c020db29&amp;dnt=true&amp;prev=de3e2105-6842-c407-13a0-c44a90b1bbdc&amp;rnd=24946</v>
       </c>
       <c r="C106" t="str">
         <v>Image</v>
@@ -3685,7 +3685,7 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>215739</v>
+        <v>280896</v>
       </c>
       <c r="D3">
         <v>1323192</v>
@@ -3699,7 +3699,7 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>2310921</v>
+        <v>2310896</v>
       </c>
       <c r="D4">
         <v>8553963</v>
@@ -3727,7 +3727,7 @@
         <v>48</v>
       </c>
       <c r="C6">
-        <v>1200718</v>
+        <v>1215982</v>
       </c>
       <c r="D6">
         <v>1228302</v>
@@ -3836,13 +3836,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1511754</v>
+        <v>1548785</v>
       </c>
       <c r="C2">
-        <v>0.4396377160019999</v>
+        <v>0.45040681220499995</v>
       </c>
       <c r="D2">
-        <v>0.5791248387756001</v>
+        <v>0.593310726099</v>
       </c>
     </row>
     <row r="3">
@@ -3850,13 +3850,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1510156</v>
+        <v>1531817</v>
       </c>
       <c r="C3">
-        <v>0.439172996828</v>
+        <v>0.4454722972209999</v>
       </c>
       <c r="D3">
-        <v>0.5785126746984001</v>
+        <v>0.5868106009038</v>
       </c>
     </row>
     <row r="4">
@@ -3864,13 +3864,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1510176</v>
+        <v>1531880</v>
       </c>
       <c r="C4">
-        <v>0.43917881308799994</v>
+        <v>0.44549061843999993</v>
       </c>
       <c r="D4">
-        <v>0.5785203363264001</v>
+        <v>0.586834735032</v>
       </c>
     </row>
     <row r="5">
@@ -3878,13 +3878,13 @@
         <v>median</v>
       </c>
       <c r="B5">
-        <v>1510176</v>
+        <v>1531880</v>
       </c>
       <c r="C5">
-        <v>0.43917881308799994</v>
+        <v>0.44549061843999993</v>
       </c>
       <c r="D5">
-        <v>0.5785203363264001</v>
+        <v>0.586834735032</v>
       </c>
     </row>
   </sheetData>
